--- a/app/files/Course Structure - template.xlsx
+++ b/app/files/Course Structure - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/Documents/Degree/Semester8/6000CEM_Individual_Project_Preparation/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4574A14-2231-1149-9A48-9B4B017031BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB4DBC-D7C0-F741-994B-1630048FB460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="500" windowWidth="25780" windowHeight="17500" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
   </bookViews>
   <sheets>
     <sheet name="CIT" sheetId="2" r:id="rId1"/>
@@ -79,46 +79,46 @@
     <t>No of Blended Weeks</t>
   </si>
   <si>
+    <t>Introduction to Database Management System</t>
+  </si>
+  <si>
+    <t>COM2111</t>
+  </si>
+  <si>
+    <t>Writing Skills</t>
+  </si>
+  <si>
+    <t>ICT2104</t>
+  </si>
+  <si>
+    <t>Computer Ethics</t>
+  </si>
+  <si>
+    <t>INT4000CEM</t>
+  </si>
+  <si>
+    <t>Programming and Algorithms</t>
+  </si>
+  <si>
+    <t>Subject Title</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Asihvini Govinda Pilay</t>
+  </si>
+  <si>
+    <t>Asvhini Subramaniam</t>
+  </si>
+  <si>
+    <t>Kavitha Thamadharan</t>
+  </si>
+  <si>
     <t>CIT1000</t>
   </si>
   <si>
-    <t>Introduction To Information Technology</t>
-  </si>
-  <si>
-    <t>Introduction to Database Management System</t>
-  </si>
-  <si>
-    <t>COM2111</t>
-  </si>
-  <si>
-    <t>Writing Skills</t>
-  </si>
-  <si>
-    <t>ICT2104</t>
-  </si>
-  <si>
-    <t>Computer Ethics</t>
-  </si>
-  <si>
-    <t>INT4000CEM</t>
-  </si>
-  <si>
-    <t>Programming and Algorithms</t>
-  </si>
-  <si>
-    <t>Subject Title</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Asihvini Govinda Pilay</t>
-  </si>
-  <si>
-    <t>Asvhini Subramaniam</t>
-  </si>
-  <si>
-    <t>Kavitha Thamadharan</t>
+    <t>Intorduction to Information Technology</t>
   </si>
 </sst>
 </file>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2C89A1-984C-4A37-B6A8-FF8A359488C1}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -678,15 +678,15 @@
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>9</v>
@@ -713,14 +713,14 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -769,8 +769,8 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -780,7 +780,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -789,7 +789,7 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -809,8 +809,8 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -829,7 +829,7 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -839,7 +839,7 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -867,9 +867,9 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -878,13 +878,6 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" s="6"/>
@@ -909,9 +902,6 @@
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -924,7 +914,7 @@
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -946,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>1</v>
@@ -973,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.2">
@@ -981,7 +971,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1008,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1393,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -1420,15 +1410,15 @@
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1455,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1686,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -1713,15 +1703,15 @@
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1748,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1979,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -2006,15 +1996,15 @@
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>9</v>
@@ -2041,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -2105,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">

--- a/app/files/Course Structure - template.xlsx
+++ b/app/files/Course Structure - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB4DBC-D7C0-F741-994B-1630048FB460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BB8130-2482-F148-BC27-33387F33B0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
   </bookViews>
   <sheets>
     <sheet name="CIT" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
   <si>
     <t>Subject Code</t>
   </si>
@@ -106,26 +106,20 @@
     <t>Head</t>
   </si>
   <si>
-    <t>Asihvini Govinda Pilay</t>
-  </si>
-  <si>
-    <t>Asvhini Subramaniam</t>
-  </si>
-  <si>
-    <t>Kavitha Thamadharan</t>
-  </si>
-  <si>
     <t>CIT1000</t>
   </si>
   <si>
     <t>Intorduction to Information Technology</t>
+  </si>
+  <si>
+    <t>Head Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +137,6 @@
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,14 +269,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -628,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2C89A1-984C-4A37-B6A8-FF8A359488C1}">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -683,10 +675,10 @@
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>9</v>
@@ -713,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -914,7 +906,7 @@
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -998,7 +990,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1445,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1655,7 +1647,7 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1947,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78B4FEF-C9BF-7849-81C2-7B275E935287}">
   <dimension ref="B2:L3"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2036,7 +2028,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:G3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2099,19 +2091,46 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="16">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:G3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/files/Course Structure - template.xlsx
+++ b/app/files/Course Structure - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BB8130-2482-F148-BC27-33387F33B0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA9CC20-9280-F44B-BCA8-1F7A05619861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
   </bookViews>
   <sheets>
     <sheet name="CIT" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Subject Code</t>
   </si>
@@ -1939,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78B4FEF-C9BF-7849-81C2-7B275E935287}">
   <dimension ref="B2:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6AFDA-E811-CC4B-9E52-A755A7C6D965}">
   <dimension ref="B2:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="B3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2091,39 +2091,17 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:G3">

--- a/app/files/Course Structure - template.xlsx
+++ b/app/files/Course Structure - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA9CC20-9280-F44B-BCA8-1F7A05619861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557FC48A-9991-1442-AD48-5D5C58D5F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
   </bookViews>
   <sheets>
     <sheet name="CIT" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Subject Code</t>
   </si>
@@ -112,7 +112,10 @@
     <t>Intorduction to Information Technology</t>
   </si>
   <si>
-    <t>Head Name</t>
+    <t>Head Head Head</t>
+  </si>
+  <si>
+    <t>Head Head</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,6 +271,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1">
         <v>14</v>
@@ -709,14 +719,17 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
@@ -905,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92CC811-CB46-4FE0-ADFD-37BE80366E58}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -990,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2040,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6AFDA-E811-CC4B-9E52-A755A7C6D965}">
   <dimension ref="B2:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="B3:L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/app/files/Course Structure - template.xlsx
+++ b/app/files/Course Structure - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557FC48A-9991-1442-AD48-5D5C58D5F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E09F75D-AC4E-2C4E-B994-A475790EFBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
   <si>
     <t>Subject Code</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Head Head Head</t>
-  </si>
-  <si>
-    <t>Head Head</t>
   </si>
 </sst>
 </file>
@@ -978,11 +975,11 @@
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1003,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">

--- a/app/files/Course Structure - template.xlsx
+++ b/app/files/Course Structure - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E09F75D-AC4E-2C4E-B994-A475790EFBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D48A24D-341B-DA4B-9713-E161C12B0857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{21531AB4-D6B9-41D8-B971-2B1FE7C0ADF4}"/>
   </bookViews>
   <sheets>
     <sheet name="CIT" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <t>Intorduction to Information Technology</t>
   </si>
   <si>
-    <t>Head Head Head</t>
+    <t>Head Name</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92CC811-CB46-4FE0-ADFD-37BE80366E58}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1363,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896BEB52-8E44-7740-994A-7A84EBFF77D2}">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
